--- a/CdS_Mastodon/lib/toots/toots_CdS_4.xlsx
+++ b/CdS_Mastodon/lib/toots/toots_CdS_4.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19:57:46</t>
+          <t>19:52:23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10:54:37</t>
+          <t>19:30:41</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10:51:53</t>
+          <t>19:48:46</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11:04:16</t>
+          <t>17:17:44</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>09:26:09</t>
+          <t>16:29:08</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13:46:08</t>
+          <t>09:37:35</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18:11:53</t>
+          <t>11:40:50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>19:50:07</t>
+          <t>19:15:16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16:55:39</t>
+          <t>14:51:30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>15:27:55</t>
+          <t>16:39:35</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10:36:23</t>
+          <t>17:46:09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17:52:43</t>
+          <t>16:48:05</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14:05:07</t>
+          <t>19:58:49</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>17:47:18</t>
+          <t>08:53:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16:49:51</t>
+          <t>09:10:29</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11:39:46</t>
+          <t>11:54:34</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>17:33:20</t>
+          <t>10:52:01</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17:49:41</t>
+          <t>16:03:25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10:42:07</t>
+          <t>18:45:32</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>19:56:34</t>
+          <t>11:16:57</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>09:22:32</t>
+          <t>10:45:34</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>08:40:13</t>
+          <t>17:45:17</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10:33:10</t>
+          <t>16:19:23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>19:38:06</t>
+          <t>09:29:15</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>15:24:13</t>
+          <t>16:16:07</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>17:38:32</t>
+          <t>08:55:41</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16:54:28</t>
+          <t>19:41:20</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>19:33:28</t>
+          <t>12:21:24</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>13:22:04</t>
+          <t>11:49:07</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>17:46:40</t>
+          <t>15:09:27</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>19:16:52</t>
+          <t>12:13:45</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>18:05:27</t>
+          <t>09:31:19</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12:55:52</t>
+          <t>09:38:50</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16:48:47</t>
+          <t>14:56:30</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13:08:11</t>
+          <t>09:02:22</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>12:46:27</t>
+          <t>09:44:02</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>12:38:43</t>
+          <t>10:47:10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>19:49:26</t>
+          <t>14:33:33</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17:31:06</t>
+          <t>11:05:02</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>13:35:46</t>
+          <t>14:38:42</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12:25:57</t>
+          <t>11:00:06</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>14:19:29</t>
+          <t>13:11:31</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>15:05:38</t>
+          <t>11:11:25</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>17:42:14</t>
+          <t>10:50:41</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>09:44:48</t>
+          <t>08:45:48</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11:19:43</t>
+          <t>11:19:49</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11:39:28</t>
+          <t>10:11:40</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16:11:34</t>
+          <t>19:44:42</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>14:58:36</t>
+          <t>17:00:29</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>13:20:07</t>
+          <t>15:06:25</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10:47:05</t>
+          <t>19:05:36</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12:00:52</t>
+          <t>13:29:39</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>08:38:25</t>
+          <t>15:17:41</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>14:46:55</t>
+          <t>12:30:14</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>11:52:52</t>
+          <t>11:40:35</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16:48:33</t>
+          <t>19:24:46</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10:00:24</t>
+          <t>17:36:45</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>08:10:18</t>
+          <t>10:24:45</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11:28:04</t>
+          <t>10:35:08</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>14:30:24</t>
+          <t>11:32:34</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>09:51:11</t>
+          <t>18:36:27</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>13:03:52</t>
+          <t>09:04:34</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>18:25:53</t>
+          <t>14:58:07</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>13:45:08</t>
+          <t>11:32:43</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>09:05:23</t>
+          <t>19:05:28</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>14:07:51</t>
+          <t>15:27:32</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>14:42:32</t>
+          <t>13:33:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>17:11:24</t>
+          <t>18:20:01</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>19:27:25</t>
+          <t>10:49:02</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>18:41:31</t>
+          <t>18:08:31</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>13:35:13</t>
+          <t>19:57:20</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>14:54:43</t>
+          <t>17:30:10</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>17:56:51</t>
+          <t>10:23:55</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>15:10:43</t>
+          <t>19:53:39</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>08:22:47</t>
+          <t>19:54:38</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>17:12:05</t>
+          <t>13:46:26</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>17:52:15</t>
+          <t>19:54:32</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16:26:12</t>
+          <t>17:07:31</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>14:25:29</t>
+          <t>14:31:13</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>14:52:17</t>
+          <t>17:23:38</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>12:02:32</t>
+          <t>16:52:50</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>15:57:31</t>
+          <t>09:54:45</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>11:17:41</t>
+          <t>09:20:35</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>10:57:05</t>
+          <t>19:17:41</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>08:20:49</t>
+          <t>16:19:12</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>08:27:10</t>
+          <t>09:05:08</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>14:49:54</t>
+          <t>09:36:10</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>11:31:35</t>
+          <t>18:06:51</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>17:03:23</t>
+          <t>13:11:03</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>12:29:26</t>
+          <t>17:22:10</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>12:11:07</t>
+          <t>17:30:22</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>17:38:20</t>
+          <t>09:37:43</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>15:23:19</t>
+          <t>18:23:02</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>15:17:13</t>
+          <t>19:24:19</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>17:21:22</t>
+          <t>19:09:47</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>08:31:23</t>
+          <t>14:26:25</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>18:35:26</t>
+          <t>11:02:13</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>09:38:41</t>
+          <t>17:41:09</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>11:18:23</t>
+          <t>19:13:22</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>09:53:35</t>
+          <t>16:38:56</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>11:28:00</t>
+          <t>15:49:29</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>12:00:07</t>
+          <t>14:21:08</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>14:01:43</t>
+          <t>11:43:45</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>08:11:42</t>
+          <t>14:36:26</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>09:14:08</t>
+          <t>15:10:30</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>12:25:40</t>
+          <t>16:54:45</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>19:05:13</t>
+          <t>12:32:58</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>14:57:36</t>
+          <t>19:06:26</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>13:11:44</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>10:03:47</t>
+          <t>11:26:31</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>13:07:10</t>
+          <t>16:49:28</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>12:16:24</t>
+          <t>19:55:43</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>19:04:46</t>
+          <t>11:21:57</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>17:26:43</t>
+          <t>11:49:03</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>11:03:02</t>
+          <t>18:22:37</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>19:13:07</t>
+          <t>15:14:01</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>12:14:17</t>
+          <t>14:41:11</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>13:08:17</t>
+          <t>13:00:20</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>17:15:45</t>
+          <t>13:02:47</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>18:16:38</t>
+          <t>14:47:10</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>19:37:00</t>
+          <t>18:00:35</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>19:36:23</t>
+          <t>10:49:46</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>15:35:10</t>
+          <t>12:39:12</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>12:31:43</t>
+          <t>09:22:57</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>13:09:27</t>
+          <t>13:03:57</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>10:40:27</t>
+          <t>10:38:42</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>17:49:04</t>
+          <t>14:03:06</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>19:49:05</t>
+          <t>18:25:20</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16:42:06</t>
+          <t>13:51:11</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>15:31:26</t>
+          <t>19:43:17</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>18:18:04</t>
+          <t>12:51:55</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>19:10:51</t>
+          <t>16:01:26</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16:47:21</t>
+          <t>10:38:55</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>14:49:18</t>
+          <t>11:26:20</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>10:57:14</t>
+          <t>13:54:15</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16:35:58</t>
+          <t>13:41:25</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>09:57:50</t>
+          <t>13:23:55</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>14:16:16</t>
+          <t>13:44:46</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>19:29:43</t>
+          <t>13:12:58</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>13:35:15</t>
+          <t>12:34:17</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>11:17:24</t>
+          <t>09:15:44</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4275,7 +4275,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>13:28:24</t>
+          <t>11:52:52</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>15:25:41</t>
+          <t>08:02:19</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>11:21:51</t>
+          <t>16:57:44</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>13:25:51</t>
+          <t>11:23:05</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>15:29:19</t>
+          <t>17:37:30</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16:43:58</t>
+          <t>16:58:08</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>19:30:28</t>
+          <t>19:30:38</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>19:43:37</t>
+          <t>08:14:27</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>11:25:37</t>
+          <t>17:20:43</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>18:45:05</t>
+          <t>10:37:54</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>19:48:29</t>
+          <t>13:50:33</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>14:31:35</t>
+          <t>10:23:00</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>13:18:04</t>
+          <t>09:56:41</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16:56:24</t>
+          <t>14:43:08</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>11:34:11</t>
+          <t>10:35:01</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>19:49:20</t>
+          <t>14:46:58</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>13:24:34</t>
+          <t>11:51:22</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>15:12:43</t>
+          <t>09:45:36</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>14:51:58</t>
+          <t>11:56:21</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16:40:04</t>
+          <t>16:24:21</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>18:35:12</t>
+          <t>14:24:26</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>11:39:04</t>
+          <t>16:35:25</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>09:02:38</t>
+          <t>12:16:57</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>15:46:58</t>
+          <t>13:14:54</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>14:41:55</t>
+          <t>08:51:16</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16:19:36</t>
+          <t>18:07:18</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>10:46:22</t>
+          <t>12:06:43</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>12:30:40</t>
+          <t>18:14:12</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>09:03:52</t>
+          <t>16:37:01</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5058,7 +5058,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>17:52:26</t>
+          <t>11:48:46</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>18:41:41</t>
+          <t>08:13:14</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>10:02:07</t>
+          <t>18:52:16</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>19:21:46</t>
+          <t>16:12:24</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>09:09:16</t>
+          <t>17:48:10</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>11:28:45</t>
+          <t>11:40:13</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>14:08:18</t>
+          <t>18:48:58</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16:26:26</t>
+          <t>16:43:47</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>14:42:15</t>
+          <t>10:46:45</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>14:07:41</t>
+          <t>09:22:41</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>10:09:42</t>
+          <t>18:04:15</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5355,7 +5355,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>12:07:40</t>
+          <t>19:01:35</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16:24:52</t>
+          <t>10:56:10</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16:45:37</t>
+          <t>16:11:07</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>19:02:49</t>
+          <t>08:17:39</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>17:09:17</t>
+          <t>12:10:52</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>13:35:21</t>
+          <t>09:47:52</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>18:14:22</t>
+          <t>16:58:27</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>19:08:26</t>
+          <t>12:32:30</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>10:23:45</t>
+          <t>19:48:02</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>09:35:52</t>
+          <t>14:47:37</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>17:02:56</t>
+          <t>08:43:38</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>09:49:53</t>
+          <t>10:20:42</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>19:11:21</t>
+          <t>09:39:13</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>19:07:53</t>
+          <t>11:35:14</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>19:43:51</t>
+          <t>17:24:17</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5760,7 +5760,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>10:33:43</t>
+          <t>11:28:43</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>14:24:21</t>
+          <t>11:11:24</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>11:42:58</t>
+          <t>08:20:21</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>19:34:34</t>
+          <t>18:26:56</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16:48:39</t>
+          <t>19:25:54</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5895,7 +5895,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16:54:33</t>
+          <t>14:10:07</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>14:27:52</t>
+          <t>11:02:04</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>12:45:42</t>
+          <t>18:58:03</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>19:47:11</t>
+          <t>08:47:43</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>13:25:28</t>
+          <t>10:23:15</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>19:48:38</t>
+          <t>11:01:15</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>10:17:25</t>
+          <t>17:13:08</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>12:50:33</t>
+          <t>13:42:41</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>18:13:31</t>
+          <t>16:47:21</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6138,7 +6138,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>12:21:39</t>
+          <t>12:37:33</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>13:00:56</t>
+          <t>19:54:11</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>09:52:49</t>
+          <t>15:45:41</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -6219,7 +6219,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>16:10:35</t>
+          <t>11:46:01</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>10:48:42</t>
+          <t>15:26:17</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>10:57:34</t>
+          <t>14:57:05</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6300,7 +6300,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16:58:30</t>
+          <t>16:35:27</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>09:25:56</t>
+          <t>09:44:21</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>12:48:22</t>
+          <t>17:56:17</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>18:11:22</t>
+          <t>11:09:04</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6408,7 +6408,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>18:24:25</t>
+          <t>14:42:13</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>19:55:23</t>
+          <t>09:46:52</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>16:58:08</t>
+          <t>15:07:14</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>10:35:21</t>
+          <t>16:04:35</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>16:04:23</t>
+          <t>16:15:46</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>14:51:43</t>
+          <t>08:08:15</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>15:26:18</t>
+          <t>13:43:27</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>16:23:51</t>
+          <t>09:55:23</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>11:06:30</t>
+          <t>13:58:40</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>11:30:26</t>
+          <t>11:12:20</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>08:13:53</t>
+          <t>14:45:23</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>12:51:11</t>
+          <t>18:35:25</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>19:08:02</t>
+          <t>12:44:16</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -6759,7 +6759,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>11:54:54</t>
+          <t>08:33:10</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6786,7 +6786,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>09:25:04</t>
+          <t>13:10:01</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>19:52:21</t>
+          <t>13:21:04</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -6840,7 +6840,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>09:15:07</t>
+          <t>15:19:55</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>09:12:18</t>
+          <t>14:14:10</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>19:26:55</t>
+          <t>08:25:22</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>18:12:48</t>
+          <t>10:11:34</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>18:13:44</t>
+          <t>13:20:39</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>11:58:08</t>
+          <t>09:26:10</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -7002,7 +7002,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>09:08:03</t>
+          <t>19:53:57</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>14:47:15</t>
+          <t>10:52:56</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>16:16:26</t>
+          <t>17:52:05</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -7083,7 +7083,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>08:26:13</t>
+          <t>10:12:32</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>13:53:17</t>
+          <t>10:00:20</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>16:16:57</t>
+          <t>16:48:37</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>10:44:56</t>
+          <t>08:58:49</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>15:46:30</t>
+          <t>10:45:07</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>13:32:22</t>
+          <t>19:26:37</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>15:32:57</t>
+          <t>14:25:30</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -7272,7 +7272,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>11:29:28</t>
+          <t>12:33:19</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>14:39:35</t>
+          <t>19:31:00</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>17:09:18</t>
+          <t>12:20:48</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>17:02:40</t>
+          <t>17:28:44</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>17:03:01</t>
+          <t>10:23:53</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -7407,7 +7407,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>15:40:15</t>
+          <t>13:56:05</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>15:27:32</t>
+          <t>09:31:03</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>17:44:36</t>
+          <t>13:11:19</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>10:10:17</t>
+          <t>15:38:56</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>08:57:37</t>
+          <t>15:12:36</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>15:30:34</t>
+          <t>09:31:58</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>17:06:23</t>
+          <t>13:09:21</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>18:33:28</t>
+          <t>16:42:10</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>14:48:26</t>
+          <t>19:42:44</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>18:30:40</t>
+          <t>12:28:03</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>18:47:41</t>
+          <t>14:21:30</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>11:31:26</t>
+          <t>15:13:52</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>19:40:22</t>
+          <t>17:12:52</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>10:21:01</t>
+          <t>19:10:31</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>11:55:57</t>
+          <t>19:39:22</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>09:20:46</t>
+          <t>15:11:14</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>13:05:54</t>
+          <t>19:13:41</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>09:14:37</t>
+          <t>11:16:33</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>19:23:27</t>
+          <t>09:47:22</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -7920,7 +7920,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>08:08:56</t>
+          <t>10:57:34</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>15:03:43</t>
+          <t>11:17:33</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>15:50:22</t>
+          <t>10:29:12</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>12:23:04</t>
+          <t>19:14:00</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>17:24:33</t>
+          <t>13:01:35</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>18:57:37</t>
+          <t>16:37:22</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -8082,7 +8082,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>19:30:17</t>
+          <t>17:48:37</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>18:24:30</t>
+          <t>18:30:40</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>11:26:20</t>
+          <t>09:51:29</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>10:01:52</t>
+          <t>17:50:35</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>17:00:17</t>
+          <t>09:56:13</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>18:44:50</t>
+          <t>14:20:01</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>12:09:51</t>
+          <t>14:40:35</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>19:29:38</t>
+          <t>10:46:54</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -8298,7 +8298,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>13:34:58</t>
+          <t>13:05:32</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>13:26:24</t>
+          <t>09:15:20</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -8352,7 +8352,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>18:15:26</t>
+          <t>17:38:13</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -8379,7 +8379,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>13:25:32</t>
+          <t>16:33:52</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -8406,7 +8406,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>12:44:58</t>
+          <t>19:14:38</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>13:23:19</t>
+          <t>15:46:40</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -8460,7 +8460,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>12:34:28</t>
+          <t>14:23:14</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -8487,7 +8487,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>19:35:30</t>
+          <t>13:42:38</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>10:30:18</t>
+          <t>10:20:48</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>12:34:19</t>
+          <t>16:04:00</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>16:11:15</t>
+          <t>11:27:06</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>18:51:54</t>
+          <t>12:51:19</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>12:06:41</t>
+          <t>16:43:00</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>10:50:18</t>
+          <t>12:56:16</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>13:44:55</t>
+          <t>13:35:13</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>16:01:41</t>
+          <t>08:01:47</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -8730,7 +8730,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>14:15:24</t>
+          <t>12:07:37</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>12:23:16</t>
+          <t>11:15:09</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -8784,7 +8784,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>17:54:52</t>
+          <t>18:51:01</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>11:30:22</t>
+          <t>19:21:49</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>11:34:20</t>
+          <t>17:21:11</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>13:26:35</t>
+          <t>08:09:44</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>15:12:50</t>
+          <t>09:35:20</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -8919,7 +8919,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>17:45:41</t>
+          <t>14:02:09</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>09:28:06</t>
+          <t>14:55:32</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -8973,7 +8973,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>12:21:43</t>
+          <t>15:01:53</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -9000,7 +9000,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>19:58:28</t>
+          <t>16:19:57</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>09:36:14</t>
+          <t>15:45:14</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>18:22:53</t>
+          <t>08:06:53</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>14:42:30</t>
+          <t>16:49:34</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -9108,7 +9108,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>09:50:07</t>
+          <t>14:16:02</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -9135,7 +9135,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>16:13:08</t>
+          <t>09:26:45</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>10:42:30</t>
+          <t>10:24:57</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>19:44:34</t>
+          <t>08:41:34</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>08:31:03</t>
+          <t>16:42:27</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>08:32:41</t>
+          <t>08:42:09</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -9270,7 +9270,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>09:34:18</t>
+          <t>11:25:14</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>08:47:43</t>
+          <t>15:35:51</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>19:10:28</t>
+          <t>09:45:48</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -9351,7 +9351,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>18:18:30</t>
+          <t>18:54:16</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -9378,7 +9378,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>19:57:15</t>
+          <t>18:05:53</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>17:02:06</t>
+          <t>11:09:33</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -9432,7 +9432,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>14:57:04</t>
+          <t>18:29:47</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>14:16:25</t>
+          <t>19:46:49</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -9486,7 +9486,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>18:21:46</t>
+          <t>09:50:04</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9513,7 +9513,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>09:25:13</t>
+          <t>18:57:54</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>10:09:01</t>
+          <t>17:21:22</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>09:39:06</t>
+          <t>17:31:48</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9594,7 +9594,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>10:28:00</t>
+          <t>15:40:54</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>08:44:29</t>
+          <t>14:00:41</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9648,7 +9648,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>15:02:49</t>
+          <t>14:26:57</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9675,7 +9675,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>12:56:00</t>
+          <t>15:26:08</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -9702,7 +9702,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>14:19:37</t>
+          <t>11:15:14</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -9729,7 +9729,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>15:57:03</t>
+          <t>14:31:48</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -9756,7 +9756,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>13:45:06</t>
+          <t>15:01:24</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>08:46:53</t>
+          <t>11:43:29</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>12:21:04</t>
+          <t>18:38:31</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>18:48:36</t>
+          <t>08:28:43</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -9864,7 +9864,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>15:56:31</t>
+          <t>18:01:17</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>18:48:53</t>
+          <t>12:08:51</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>09:21:03</t>
+          <t>14:15:12</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>17:28:33</t>
+          <t>08:32:51</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -9972,7 +9972,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>19:43:07</t>
+          <t>13:52:46</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>14:22:12</t>
+          <t>19:26:05</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>08:09:19</t>
+          <t>10:35:05</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>19:30:49</t>
+          <t>17:12:36</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>13:49:56</t>
+          <t>19:15:42</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>15:04:37</t>
+          <t>08:21:20</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>14:38:17</t>
+          <t>08:47:43</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>15:36:18</t>
+          <t>13:52:40</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -10188,7 +10188,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>18:02:04</t>
+          <t>13:17:26</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>16:46:05</t>
+          <t>14:43:23</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -10242,7 +10242,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>09:41:14</t>
+          <t>12:49:16</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -10269,7 +10269,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>10:22:50</t>
+          <t>16:07:53</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -10296,7 +10296,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>11:23:24</t>
+          <t>18:12:11</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>19:38:09</t>
+          <t>08:05:40</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>19:23:33</t>
+          <t>12:21:04</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>09:31:53</t>
+          <t>11:20:12</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>13:08:05</t>
+          <t>18:02:36</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -10431,7 +10431,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>14:21:08</t>
+          <t>18:12:13</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -10458,7 +10458,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>16:43:08</t>
+          <t>16:19:43</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>12:16:47</t>
+          <t>16:55:47</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -10512,7 +10512,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>11:45:43</t>
+          <t>15:12:51</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>17:49:43</t>
+          <t>18:01:35</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -10566,7 +10566,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>11:44:32</t>
+          <t>09:50:58</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>16:47:12</t>
+          <t>12:53:14</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>14:34:06</t>
+          <t>08:24:14</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>15:21:46</t>
+          <t>18:43:13</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>15:40:21</t>
+          <t>15:47:23</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>10:51:36</t>
+          <t>13:38:15</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -10728,7 +10728,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>19:02:40</t>
+          <t>19:31:30</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -10755,7 +10755,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>16:30:05</t>
+          <t>16:58:51</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -10782,12 +10782,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>17:49:57</t>
+          <t>12:20:12</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>"J'ai reçu il y a quelque jours votre excellente lettre, mon ancienne amie_x000D__x000D_ ..." à Salis, 1837-11-26, https://constance-de-salm.de/archiv/#/document/7873 #onthisday</t>
+          <t>"J'ai reçu il y a quelque jours votre excellente lettre, mon ancienne amie ..." à Salis, 1837-11-26, https://constance-de-salm.de/archiv/#/document/7873 #onthisday</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -10809,7 +10809,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>16:41:28</t>
+          <t>08:01:08</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -10836,7 +10836,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>09:33:42</t>
+          <t>08:50:20</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>13:57:17</t>
+          <t>08:44:13</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>09:21:35</t>
+          <t>13:13:17</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>16:40:49</t>
+          <t>15:01:08</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>11:33:05</t>
+          <t>12:45:58</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>19:16:24</t>
+          <t>09:22:36</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -10998,7 +10998,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>19:08:02</t>
+          <t>18:35:25</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -11025,7 +11025,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>11:56:20</t>
+          <t>15:33:25</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -11052,7 +11052,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>15:18:00</t>
+          <t>11:20:37</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>15:14:39</t>
+          <t>09:31:57</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -11106,7 +11106,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>15:00:28</t>
+          <t>09:40:04</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>18:25:45</t>
+          <t>17:10:50</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>16:46:16</t>
+          <t>17:20:08</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>11:54:43</t>
+          <t>08:07:20</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -11214,7 +11214,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>11:07:50</t>
+          <t>13:32:09</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>13:22:25</t>
+          <t>10:39:15</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>11:03:43</t>
+          <t>15:19:31</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>13:13:56</t>
+          <t>17:42:03</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
